--- a/CashFlow/TTWO_cashflow.xlsx
+++ b/CashFlow/TTWO_cashflow.xlsx
@@ -742,19 +742,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>92000000.0</v>
+        <v>-1651000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>89000000.0</v>
+        <v>13287000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>45907000.0</v>
+        <v>4329000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>30936000.0</v>
+        <v>8489000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>23885000.0</v>
+        <v>15637000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-542000.0</v>
@@ -1014,19 +1014,19 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>92556000.0</v>
+        <v>366892000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>42919000.0</v>
+        <v>348892000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>287480000.0</v>
+        <v>546316000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>328061000.0</v>
+        <v>498677000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>584086000.0</v>
+        <v>783030000.0</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>672696000.0</v>
